--- a/設計書_打刻侍/50_単体テスト/エビデンス/単体テストエビデンス_(C001)ログイン画面.xlsx
+++ b/設計書_打刻侍/50_単体テスト/エビデンス/単体テストエビデンス_(C001)ログイン画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d_yoshiara\Desktop\dakokusamurai-git-repository\設計書_打刻侍\50_単体テスト\エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DD6BB8E-8F05-4713-BE5A-A4DCF1767819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B3B3DA-6080-4CB1-80E9-78E06E7AE682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="-4665" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>単体テストエビデンス</t>
   </si>
@@ -51,14 +51,6 @@
   </si>
   <si>
     <t>ケース4,5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケース3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケース6,7</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -103,6 +95,10 @@
   </si>
   <si>
     <t>ケース28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケース3,6,7</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -171,21 +167,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>93116</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>353047</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57259</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C3E5B98-9DC3-15F5-4717-BB14A624BAA1}"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA22EC21-CBAE-F44F-D68F-D31E2FB74B5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -194,21 +190,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="962025"/>
-          <a:ext cx="7772400" cy="4369841"/>
+          <a:off x="9525" y="942975"/>
+          <a:ext cx="4458322" cy="781159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -221,21 +211,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>83591</xdr:rowOff>
+      <xdr:colOff>229685</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47963</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F46BC1-A220-56F4-598B-EEC39C4CAE1A}"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{708995B1-E6B1-6F91-CC83-13624A2B7B8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -244,21 +234,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5953125"/>
-          <a:ext cx="7772400" cy="4369841"/>
+          <a:off x="0" y="5238750"/>
+          <a:ext cx="7754435" cy="2429214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -271,21 +255,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>93116</xdr:rowOff>
+      <xdr:colOff>229685</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>330</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81663C80-284B-B3C2-004A-F89258472F30}"/>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB69FC6-27D7-0828-A2B3-2AED04427C05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -294,21 +278,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10725150"/>
-          <a:ext cx="7772400" cy="4369841"/>
+          <a:off x="0" y="8353425"/>
+          <a:ext cx="7773485" cy="2362530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -321,21 +299,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>83591</xdr:rowOff>
+      <xdr:colOff>229685</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>67011</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53E82859-204B-A718-7244-5F6D8DC2E4D4}"/>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5289F68B-3447-EFEA-4AC4-7B7508E095A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -344,21 +322,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="15478125"/>
-          <a:ext cx="7772400" cy="4369841"/>
+          <a:off x="0" y="8372475"/>
+          <a:ext cx="7746152" cy="2410161"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -371,21 +343,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>83591</xdr:rowOff>
+      <xdr:colOff>229685</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>47958</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52493DE7-FE8D-341D-2C61-B9347EEBBB8D}"/>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDF0895F-D52A-818F-5B06-96EDFA7DEAF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -394,21 +366,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="20240625"/>
-          <a:ext cx="7772400" cy="4369841"/>
+          <a:off x="0" y="14325600"/>
+          <a:ext cx="7773485" cy="2391109"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -421,21 +387,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>83591</xdr:rowOff>
+      <xdr:colOff>229685</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>19381</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB8BC8D0-9BE4-A37E-6ADF-06A3BBC6A269}"/>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C503C909-885E-1B6A-3643-848AAEAF7A58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -444,21 +410,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="25003125"/>
-          <a:ext cx="7772400" cy="4369841"/>
+          <a:off x="0" y="17173575"/>
+          <a:ext cx="7773485" cy="2372056"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -471,21 +431,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>83591</xdr:rowOff>
+      <xdr:colOff>229685</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>331</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D87D97F-66F3-B318-82A2-5553FCD28505}"/>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05465AD6-1980-87AE-9F02-91354901FFFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -494,21 +454,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="29765625"/>
-          <a:ext cx="7772400" cy="4369841"/>
+          <a:off x="0" y="20021550"/>
+          <a:ext cx="7773485" cy="2362530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -521,21 +475,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>83591</xdr:rowOff>
+      <xdr:colOff>229685</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>228931</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FDEC839-5D57-EB10-E225-608260BCC5CE}"/>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56C0244E-39BA-FD3C-9308-F547BD70B22B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -544,21 +498,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="34528125"/>
-          <a:ext cx="7772400" cy="4369841"/>
+          <a:off x="0" y="22860000"/>
+          <a:ext cx="7773485" cy="2372056"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -571,21 +519,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>83591</xdr:rowOff>
+      <xdr:colOff>229685</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>332</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="図 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A72147-9CCD-28BD-82E3-1FE804E260ED}"/>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F51A7A3-7556-C7F8-F584-B889E5A9FA01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -594,21 +542,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="39290625"/>
-          <a:ext cx="7772400" cy="4369841"/>
+          <a:off x="0" y="25717500"/>
+          <a:ext cx="7773485" cy="2381582"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -621,21 +563,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>83591</xdr:rowOff>
+      <xdr:colOff>229685</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>38438</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE2BF54-9DCF-2AF5-6840-DCEDE950B93B}"/>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91FDF69-BA73-BFE4-3790-AF9A8302FC79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -644,21 +586,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="44053125"/>
-          <a:ext cx="7772400" cy="4369841"/>
+          <a:off x="0" y="28575000"/>
+          <a:ext cx="7773485" cy="2419688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -671,21 +607,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>83591</xdr:rowOff>
+      <xdr:colOff>229685</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>19382</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7E016F-8F6D-8FD9-52EA-33F2F502C609}"/>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C51E9C-1818-05FE-4B50-773F4D340225}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -694,21 +630,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="48815625"/>
-          <a:ext cx="7772400" cy="4369841"/>
+          <a:off x="0" y="31451550"/>
+          <a:ext cx="7773485" cy="2381582"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -721,21 +651,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>243</xdr:row>
-      <xdr:rowOff>83591</xdr:rowOff>
+      <xdr:colOff>229685</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>9860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="図 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F656AC6-AE93-66A7-2E54-35FA9A360C4B}"/>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D44F5317-313D-311A-31B1-389A86E253A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -744,21 +674,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="53578125"/>
-          <a:ext cx="7772400" cy="4369841"/>
+          <a:off x="0" y="34290000"/>
+          <a:ext cx="7773485" cy="2391109"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -771,21 +695,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>263</xdr:row>
-      <xdr:rowOff>83591</xdr:rowOff>
+      <xdr:colOff>229685</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>76542</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D73E9A-E115-3EA4-F423-4B7E61E30554}"/>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D9595D-6036-C961-B64F-19D78573A162}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -794,21 +718,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="58340625"/>
-          <a:ext cx="7772400" cy="4369841"/>
+          <a:off x="0" y="37147500"/>
+          <a:ext cx="7773485" cy="2457793"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -821,21 +739,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>265</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>283</xdr:row>
-      <xdr:rowOff>83591</xdr:rowOff>
+      <xdr:colOff>229685</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>19510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FE69E77-F20A-B062-D2A8-2910BBB23B23}"/>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA1B47B8-9648-60A2-7573-D011BC95279E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -844,21 +762,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="63103125"/>
-          <a:ext cx="7772400" cy="4369841"/>
+          <a:off x="0" y="40062150"/>
+          <a:ext cx="7773485" cy="3296110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -867,54 +779,900 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>285</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>303</xdr:row>
-      <xdr:rowOff>83591</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBA34632-C47C-E84C-75D3-D876EB3BAD24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="67865625"/>
-          <a:ext cx="7772400" cy="4369841"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>480579</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>662420</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BD37C10-66CE-467B-B43D-D49D1DE6FFE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2531255" y="2400860"/>
+          <a:ext cx="865400" cy="176493"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>486602</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>44628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>113885</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>25579</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45510586-82CF-47E7-AEEE-A3A3EA34D924}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2536548" y="11474628"/>
+          <a:ext cx="993913" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>496956</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>80865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>543546</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53075821-18E2-4369-9B85-6DDEFF3006D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2546902" y="8415240"/>
+          <a:ext cx="1413220" cy="179295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>509319</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>71011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>569428</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12180</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83276C3A-3137-4911-90D6-A029DC068592}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2559265" y="5547886"/>
+          <a:ext cx="1426739" cy="179294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>481426</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>108709</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>19880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65DCFBB-D929-4305-A39A-6A25FCF1741C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2531372" y="14326429"/>
+          <a:ext cx="993913" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>491780</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>31060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25883</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>12011</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3165ABD-A873-42A6-904B-BE592E7ED457}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2541726" y="17176060"/>
+          <a:ext cx="1584048" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>481425</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>25883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15528</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>6834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7441E5A9-8A5E-4DA9-8C1F-6A2964E23BBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2531371" y="20028383"/>
+          <a:ext cx="1584048" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>512485</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>25883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>372718</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>6834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{163BA989-3D27-4883-9EC3-BB2EB043A403}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2562431" y="22885883"/>
+          <a:ext cx="1910178" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>486604</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>36237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>17188</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9193F969-30E3-4672-82D0-9E56881F453D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2536550" y="25753737"/>
+          <a:ext cx="1118151" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>491780</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>20707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>372718</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>1658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BB60457-0632-4558-A2F6-B4FC7B7F2364}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2541726" y="28595707"/>
+          <a:ext cx="1930883" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>486603</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>20706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>232948</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>1657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A9175CC-851D-42FA-9859-C5198268622C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2536549" y="31453206"/>
+          <a:ext cx="1112975" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>496957</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>36236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>243302</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>17187</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DEA66FB-BA16-4F73-99C0-2B3617A14408}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2546903" y="34326236"/>
+          <a:ext cx="1112975" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>486603</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>67297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>232948</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>48248</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E846F1CC-8A35-430E-9474-6F237C44E5E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2536549" y="37214797"/>
+          <a:ext cx="1112975" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>218281</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>128983</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BDFE3AB-89A1-4A87-923C-2C43512B15B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3641328" y="6607968"/>
+          <a:ext cx="704453" cy="188515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1183,9 +1941,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237926B1-096F-42FB-ADE6-17031F1145A6}">
-  <dimension ref="A1:B285"/>
+  <dimension ref="A1:B156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -1204,74 +1964,69 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
-      <c r="A245" t="s">
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1">
-      <c r="A285" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
